--- a/assets/examples/xlsx/RS0001/Chiller-Constant-Efficiency.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/Chiller-Constant-Efficiency.RS0001.a205.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="RS0001" sheetId="1" state="visible" r:id="rId1"/>
@@ -81,7 +81,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,6 +89,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="00000000"/>
@@ -102,44 +103,111 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Title" xfId="1"/>
-    <cellStyle hidden="0" name="Heading" xfId="2"/>
-    <cellStyle hidden="0" name="Schema" xfId="3"/>
-    <cellStyle hidden="0" name="Value" xfId="4"/>
-    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Title" xfId="1" hidden="0"/>
+    <cellStyle name="Heading" xfId="2" hidden="0"/>
+    <cellStyle name="Schema" xfId="3" hidden="0"/>
+    <cellStyle name="Value" xfId="4" hidden="0"/>
+    <cellStyle name="Grid Variables" xfId="5" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -149,162 +217,172 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>ASHRAE 205 schema version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
-      <text>
-        <t>ASHRAE 205 standard version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
-      <text>
-        <t>Representation specification identifier</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Metadata data group</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Data model name</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Schema name or identifier</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>The version of the schema the data complies with</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <t>Description of data (suitable for display)</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
-      <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A12" shapeId="0">
-      <text>
-        <t>*Representation Specification* Data Group</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product and rating information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B15" shapeId="0">
-      <text>
-        <t>Name of the manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
-      <text>
-        <t>Model number for this chiller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <t>Manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Model number</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>Unit nominal voltage</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <t>Unit nominal frequency</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Type of electrical motor drive</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>Source of the liquid properties data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <t>Refrigerant used in the chiller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>Indicates if a hot-gas bypass valve is installed on the chiller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A24" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A25" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <t>Type of liquid in evaporator</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
+      <text>
+        <t>An array of all liquid components within the liquid mixture</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A28" shapeId="0">
+    <comment ref="A27" authorId="0" shapeId="0">
       <text>
         <t>Type of liquid in condenser</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
+        <t>An array of all liquid components within the liquid mixture</t>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B31" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B32" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B33" shapeId="0">
-      <text>
-        <t>Maximum unit power input</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B34" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 550/590 or AHRI 551/591</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A35" shapeId="0">
+    <comment ref="B32" authorId="0" shapeId="0">
+      <text>
+        <t>Type of compressor speed control</t>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum input power at which the chiller operates reliably and continuously</t>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 550/590 or AHRI 551/591</t>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A36" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -319,84 +397,14 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
-      <text>
-        <t>Data group defining the grid variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
-      <text>
-        <t>Data group defining the lookup variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
-      <text>
-        <t>Chilled liquid (evaporator) flow</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Leaving evaporator liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
-      <text>
-        <t>Condenser liquid flow</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
-      <text>
-        <t>Entering condenser liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
-      <text>
-        <t>Fraction of maximum net capacity at the same operating conditions.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
-      <text>
-        <t>Total power input to the packaged chiller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
-      <text>
-        <t>Unit refrigeration capacity</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
-      <text>
-        <t>Condenser heat rejection</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
-      <text>
-        <t>Entering evaporator liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J3" shapeId="0">
-      <text>
-        <t>Leaving condenser liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K3" shapeId="0">
-      <text>
-        <t>Pressure drop across the evaporator</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L3" shapeId="0">
-      <text>
-        <t>Pressure drop across the condenser</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M3" shapeId="0">
-      <text>
-        <t>Heat rejected by the chiller oil cooler (if separate stream crossing the control volume boundary)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N3" shapeId="0">
-      <text>
-        <t>Heat rejected by the motor control center cooling (if separate stream crossing the control volume boundary)</t>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Substance of this component of the mixture</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>Concentration of this component of the mixture</t>
       </text>
     </comment>
   </commentList>
@@ -409,24 +417,134 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Substance of this component of the mixture</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>Concentration of this component of the mixture</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>Index indicating the relative capacity order of the compressor speed/stage expressed in order from lowest capacity (starting at 1) to highest capacity</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <t>Total power input</t>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <t>Refrigeration capacity</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser heat rejection</t>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the grid variables for standby performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the lookup variables for standby performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Dry bulb temperature of the air in the environment of the chiller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Total power consumed by the chiller when not running. Value shall include all power sources and all auxiliary equipment provided with the chiller.</t>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Total power consumed in standby operation</t>
       </text>
     </comment>
   </commentList>
@@ -730,58 +848,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -870,17 +988,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -892,12 +1006,12 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>standard_version</t>
+          <t>data_model</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>PPR2</t>
+          <t>ASHRAE_205</t>
         </is>
       </c>
       <c r="D4" s="4" t="n"/>
@@ -911,7 +1025,7 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -930,12 +1044,12 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>schema_version</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Water-Cooled Chiller with Constant Efficiency</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -949,12 +1063,12 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>123e4567-e89b-12d3-a456-426614174000</t>
+          <t>Water-Cooled Chiller with Constant Efficiency</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -968,12 +1082,12 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>2020-05-07T00:00Z</t>
+          <t>123e4567-e89b-12d3-a456-426614174000</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -987,11 +1101,13 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1</v>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>2020-05-07T00:00Z</t>
+        </is>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="6" t="inlineStr">
@@ -1004,51 +1120,53 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>disclaimer</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Example data not to be used for simulation</t>
-        </is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>disclaimer</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>An example representation that applies a constant COP of 5.9</t>
+          <t>Example data not to be used for simulation</t>
         </is>
       </c>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="5" t="n"/>
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>An example representation that applies a constant COP of 5.9</t>
+        </is>
+      </c>
       <c r="D12" s="4" t="n"/>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B13" s="4" t="n"/>
@@ -1059,7 +1177,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description.product_information</t>
+          <t>description.product_information</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -1071,7 +1189,7 @@
       <c r="A15" s="4" t="n"/>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        manufacturer</t>
+          <t xml:space="preserve">    manufacturer</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
@@ -1080,17 +1198,13 @@
         </is>
       </c>
       <c r="D15" s="4" t="n"/>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        model_number</t>
+          <t xml:space="preserve">    model_number</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
@@ -1099,17 +1213,13 @@
         </is>
       </c>
       <c r="D16" s="4" t="n"/>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        nominal_voltage</t>
+          <t xml:space="preserve">    nominal_voltage</t>
         </is>
       </c>
       <c r="C17" s="5" t="n">
@@ -1126,7 +1236,7 @@
       <c r="A18" s="4" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        nominal_frequency</t>
+          <t xml:space="preserve">    nominal_frequency</t>
         </is>
       </c>
       <c r="C18" s="5" t="n">
@@ -1143,7 +1253,7 @@
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        compressor_type</t>
+          <t xml:space="preserve">    compressor_type</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
@@ -1158,12 +1268,12 @@
       <c r="A20" s="4" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        speed_control_type</t>
+          <t xml:space="preserve">    liquid_data_source</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>CONSTANT_SPEED</t>
+          <t>AHRI_550_590_2015</t>
         </is>
       </c>
       <c r="D20" s="4" t="n"/>
@@ -1173,12 +1283,12 @@
       <c r="A21" s="4" t="n"/>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        liquid_data_source</t>
+          <t xml:space="preserve">    refrigerant</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>AHRI_550_590_2015</t>
+          <t>R-134A</t>
         </is>
       </c>
       <c r="D21" s="4" t="n"/>
@@ -1188,49 +1298,57 @@
       <c r="A22" s="4" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        refrigerant_type</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>R134A</t>
-        </is>
+          <t xml:space="preserve">    hot_gas_bypass_installed</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        hotgas_bypass_installed</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="5" t="n"/>
       <c r="D23" s="4" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance</t>
+          <t>performance.evaporator_liquid_type</t>
         </is>
       </c>
       <c r="B24" s="4" t="n"/>
       <c r="C24" s="5" t="n"/>
       <c r="D24" s="4" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.evaporator_liquid_type</t>
+          <t>performance.evaporator_liquid_type.liquid_components</t>
         </is>
       </c>
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="5" t="n"/>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components</t>
+        </is>
+      </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="6" t="inlineStr">
         <is>
@@ -1239,15 +1357,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.performance.evaporator_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="n"/>
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    concentration_type</t>
+        </is>
+      </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>$liquid_components</t>
+          <t>BY_VOLUME</t>
         </is>
       </c>
       <c r="D26" s="4" t="n"/>
@@ -1258,17 +1376,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        concentration_type</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>BY_VOLUME</t>
-        </is>
-      </c>
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>performance.condenser_liquid_type</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="5" t="n"/>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="6" t="inlineStr">
         <is>
@@ -1279,11 +1393,15 @@
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.condenser_liquid_type</t>
+          <t>performance.condenser_liquid_type.liquid_components</t>
         </is>
       </c>
       <c r="B28" s="4" t="n"/>
-      <c r="C28" s="5" t="n"/>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components0</t>
+        </is>
+      </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="6" t="inlineStr">
         <is>
@@ -1292,15 +1410,15 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.performance.condenser_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="n"/>
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    concentration_type</t>
+        </is>
+      </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>$liquid_components0</t>
+          <t>BY_VOLUME</t>
         </is>
       </c>
       <c r="D29" s="4" t="n"/>
@@ -1314,15 +1432,17 @@
       <c r="A30" s="4" t="n"/>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        concentration_type</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>BY_VOLUME</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="n"/>
+          <t>evaporator_fouling_factor</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0.01761</v>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>m2-K/W</t>
+        </is>
+      </c>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1333,11 +1453,11 @@
       <c r="A31" s="4" t="n"/>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    evaporator_fouling_factor</t>
+          <t>condenser_fouling_factor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.01761</v>
+        <v>0.04403</v>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
@@ -1354,17 +1474,15 @@
       <c r="A32" s="4" t="n"/>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    condenser_fouling_factor</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>0.04403</v>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/W</t>
-        </is>
-      </c>
+          <t>compressor_speed_control_type</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>DISCRETE</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="n"/>
       <c r="E32" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1375,7 +1493,7 @@
       <c r="A33" s="4" t="n"/>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    unit_power_limit</t>
+          <t>maximum_power</t>
         </is>
       </c>
       <c r="C33" s="5" t="n">
@@ -1392,7 +1510,7 @@
       <c r="A34" s="4" t="n"/>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cycling_degradation_coefficient</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1412,7 +1530,7 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_cooling</t>
+          <t>performance.performance_map_cooling</t>
         </is>
       </c>
       <c r="B35" s="4" t="n"/>
@@ -1431,7 +1549,7 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_standby</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B36" s="4" t="n"/>
@@ -1448,42 +1566,39 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
-      <formula1>"PPR2"</formula1>
+  <dataValidations count="6">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C19" type="list">
+    <dataValidation sqref="C19" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
-      <formula1>"CONSTANT_SPEED,VARIABLE_SPEED"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C27" type="list">
+    <dataValidation sqref="C26" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
+    <dataValidation sqref="C29" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C32" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1"/>
-    <hyperlink ref="C29" r:id="rId2"/>
+    <hyperlink ref="C25" r:id="rId1"/>
+    <hyperlink ref="C28" r:id="rId2"/>
     <hyperlink ref="C35" r:id="rId3"/>
     <hyperlink ref="C36" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1496,64 +1611,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.evaporator_liquid_type.liquid_components</t>
+          <t>performance.evaporator_liquid_type.liquid_components</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1636,16 +1751,17 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A4" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1658,64 +1774,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.condenser_liquid_type.liquid_components</t>
+          <t>performance.condenser_liquid_type.liquid_components</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1798,11 +1914,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A4" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -1820,64 +1937,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_cooling</t>
+          <t>performance.performance_map_cooling</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1979,7 +2096,7 @@
       </c>
       <c r="E3" s="8" t="inlineStr">
         <is>
-          <t>net_evaporator_capacity_fraction</t>
+          <t>compressor_sequence_number</t>
         </is>
       </c>
       <c r="F3" s="9" t="inlineStr">
@@ -2024,7 +2141,7 @@
       </c>
       <c r="N3" s="9" t="inlineStr">
         <is>
-          <t>motor_controller_heat</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2231,7 @@
         <v>294.15</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>59593.22033898305</v>
@@ -2158,7 +2275,7 @@
         <v>294.15</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>119186.4406779661</v>
@@ -2202,7 +2319,7 @@
         <v>294.15</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>178779.6610169491</v>
@@ -2246,7 +2363,7 @@
         <v>294.15</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>238372.8813559322</v>
@@ -2290,7 +2407,7 @@
         <v>294.15</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>297966.1016949152</v>
@@ -2334,7 +2451,7 @@
         <v>297.15</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>59593.22033898305</v>
@@ -2378,7 +2495,7 @@
         <v>297.15</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>119186.4406779661</v>
@@ -2422,7 +2539,7 @@
         <v>297.15</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>178779.6610169491</v>
@@ -2466,7 +2583,7 @@
         <v>297.15</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>238372.8813559322</v>
@@ -2510,7 +2627,7 @@
         <v>297.15</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>297966.1016949152</v>
@@ -2554,7 +2671,7 @@
         <v>300.15</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>59593.22033898305</v>
@@ -2598,7 +2715,7 @@
         <v>300.15</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>119186.4406779661</v>
@@ -2642,7 +2759,7 @@
         <v>300.15</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>178779.6610169491</v>
@@ -2686,7 +2803,7 @@
         <v>300.15</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>238372.8813559322</v>
@@ -2730,7 +2847,7 @@
         <v>300.15</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>297966.1016949152</v>
@@ -2774,7 +2891,7 @@
         <v>302.59</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>59593.22033898305</v>
@@ -2818,7 +2935,7 @@
         <v>302.59</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>119186.4406779661</v>
@@ -2862,7 +2979,7 @@
         <v>302.59</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>178779.6610169491</v>
@@ -2906,7 +3023,7 @@
         <v>302.59</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>238372.8813559322</v>
@@ -2950,7 +3067,7 @@
         <v>302.59</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>297966.1016949152</v>
@@ -2994,7 +3111,7 @@
         <v>294.15</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>59593.22033898305</v>
@@ -3038,7 +3155,7 @@
         <v>294.15</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>119186.4406779661</v>
@@ -3082,7 +3199,7 @@
         <v>294.15</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>178779.6610169491</v>
@@ -3126,7 +3243,7 @@
         <v>294.15</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>238372.8813559322</v>
@@ -3170,7 +3287,7 @@
         <v>294.15</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>297966.1016949152</v>
@@ -3214,7 +3331,7 @@
         <v>297.15</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>59593.22033898305</v>
@@ -3258,7 +3375,7 @@
         <v>297.15</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>119186.4406779661</v>
@@ -3302,7 +3419,7 @@
         <v>297.15</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>178779.6610169491</v>
@@ -3346,7 +3463,7 @@
         <v>297.15</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>238372.8813559322</v>
@@ -3390,7 +3507,7 @@
         <v>297.15</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>297966.1016949152</v>
@@ -3434,7 +3551,7 @@
         <v>300.15</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>59593.22033898305</v>
@@ -3478,7 +3595,7 @@
         <v>300.15</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>119186.4406779661</v>
@@ -3522,7 +3639,7 @@
         <v>300.15</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>178779.6610169491</v>
@@ -3566,7 +3683,7 @@
         <v>300.15</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>238372.8813559322</v>
@@ -3610,7 +3727,7 @@
         <v>300.15</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>297966.1016949152</v>
@@ -3654,7 +3771,7 @@
         <v>302.59</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>59593.22033898305</v>
@@ -3698,7 +3815,7 @@
         <v>302.59</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>119186.4406779661</v>
@@ -3742,7 +3859,7 @@
         <v>302.59</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>178779.6610169491</v>
@@ -3786,7 +3903,7 @@
         <v>302.59</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>238372.8813559322</v>
@@ -3830,7 +3947,7 @@
         <v>302.59</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>297966.1016949152</v>
@@ -3861,7 +3978,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -3880,64 +3997,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_standby</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4007,7 +4124,7 @@
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>chiller_environment_dry_bulb_temperature</t>
+          <t>environment_dry_bulb_temperature</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -4045,7 +4162,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/assets/examples/xlsx/RS0001/Chiller-Constant-Efficiency.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/Chiller-Constant-Efficiency.RS0001.a205.xlsx
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/Chiller-Constant-Efficiency.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/Chiller-Constant-Efficiency.RS0001.a205.xlsx
@@ -374,7 +374,7 @@
     </comment>
     <comment ref="B34" authorId="0" shapeId="0">
       <text>
-        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 550/590 or AHRI 551/591</t>
+        <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
     <comment ref="A35" authorId="0" shapeId="0">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/Chiller-Constant-Efficiency.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/Chiller-Constant-Efficiency.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -369,22 +371,27 @@
     </comment>
     <comment ref="B33" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A35" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A36" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -489,32 +496,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -545,6 +537,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -840,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:AZ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,7 +1111,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1493,34 +1555,36 @@
       <c r="A33" s="4" t="n"/>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C33" s="5" t="n">
-        <v>31400</v>
+        <v>0.25</v>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n"/>
       <c r="E34" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1530,13 +1594,13 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B35" s="4" t="n"/>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D35" s="4" t="n"/>
@@ -1549,13 +1613,13 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B36" s="4" t="n"/>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D36" s="4" t="n"/>
@@ -1565,32 +1629,53 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C19" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C19" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C26" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C29" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C29" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C32" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C32" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1"/>
     <hyperlink ref="C28" r:id="rId2"/>
-    <hyperlink ref="C35" r:id="rId3"/>
-    <hyperlink ref="C36" r:id="rId4"/>
+    <hyperlink ref="C34" r:id="rId3"/>
+    <hyperlink ref="C35" r:id="rId4"/>
+    <hyperlink ref="C36" r:id="rId5"/>
+    <hyperlink ref="C37" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1751,7 +1836,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1914,7 +1999,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2069,9 +2154,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2116,32 +2198,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2188,32 +2255,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2243,22 +2295,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>280.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>295.1798873124882</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2287,22 +2332,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>282.05</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>296.2097746249765</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2331,22 +2369,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>283.16</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>297.2396619374647</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2375,22 +2406,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>284.28</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>298.2695492499529</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2419,22 +2443,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>285.39</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>299.2994365624412</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2463,22 +2480,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>280.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>298.1798873124882</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2507,22 +2517,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>282.05</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>299.2097746249765</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2551,22 +2554,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>283.16</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>300.2396619374647</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2595,22 +2591,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>284.28</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>301.2695492499529</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2639,22 +2628,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>285.39</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>302.2994365624412</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2683,22 +2665,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>301.1798873124882</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2727,22 +2702,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.05</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>302.2097746249765</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2771,22 +2739,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>283.16</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>303.2396619374647</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2815,22 +2776,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>284.28</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>304.2695492499529</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2859,22 +2813,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>285.39</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>305.2994365624412</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2903,22 +2850,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>280.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>303.6198873124882</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2947,22 +2887,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.05</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>304.6497746249765</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2991,22 +2924,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.16</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>305.6796619374647</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3035,22 +2961,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>284.28</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>306.7095492499529</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -3079,22 +2998,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>285.39</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>307.7394365624412</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3123,22 +3035,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>295.1798873124882</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3167,22 +3072,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>284.05</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>296.2097746249765</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3211,22 +3109,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.16</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>297.2396619374647</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3255,22 +3146,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.28</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>298.2695492499529</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3299,22 +3183,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>287.39</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>299.2994365624412</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3343,22 +3220,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>282.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>298.1798873124882</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3387,22 +3257,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>284.05</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>299.2097746249765</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3431,22 +3294,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>285.16</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>300.2396619374647</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3475,22 +3331,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>286.28</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>301.2695492499529</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3519,22 +3368,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>287.39</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>302.2994365624412</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3563,22 +3405,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>282.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>301.1798873124882</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3607,22 +3442,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>284.05</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>302.2097746249765</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3651,22 +3479,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>285.16</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>303.2396619374647</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3695,22 +3516,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>286.28</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>304.2695492499529</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3739,22 +3553,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>287.39</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>305.2994365624412</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3783,22 +3590,15 @@
         <v>411193.2203389831</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>282.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>303.6198873124882</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3827,22 +3627,15 @@
         <v>822386.4406779661</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>284.05</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>304.6497746249765</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3871,22 +3664,15 @@
         <v>1233579.661016949</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>285.16</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>305.6796619374647</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3915,22 +3701,15 @@
         <v>1644772.881355932</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>286.28</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>306.7095492499529</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3959,22 +3738,15 @@
         <v>2055966.101694915</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>287.39</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>307.7394365624412</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>74400</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>23600</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4165,4 +3937,406 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>279.82</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>281.82</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>74400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.09569999999999999</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>294.15</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.09569999999999999</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>302.59</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>